--- a/Documents/CLR_Memory.xlsx
+++ b/Documents/CLR_Memory.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\nfNative\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26479C7E-9BC6-452B-B546-856A45EF30ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DC7C5C-147A-42F7-A7FB-9EAA22AFD1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="3800" windowWidth="28800" windowHeight="15360" tabRatio="361" xr2:uid="{9FE5670A-3518-4E82-B620-72B4990DFC77}"/>
+    <workbookView xWindow="1680" yWindow="1380" windowWidth="30700" windowHeight="19460" tabRatio="361" activeTab="1" xr2:uid="{9FE5670A-3518-4E82-B620-72B4990DFC77}"/>
   </bookViews>
   <sheets>
     <sheet name="STM769I_Discovery" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -751,7 +752,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,6 +783,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF666666"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF666666"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -803,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -813,6 +825,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1129,7 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EBCA6A-2B88-41F3-BE9A-4CA437D31239}">
   <dimension ref="A3:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
@@ -2195,4 +2209,238 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281AE893-0C29-413D-9ED1-D44664B8F2E5}">
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="str">
+        <f>DEC2HEX(HEX2DEC(70000000))</f>
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="str">
+        <f>DEC2HEX(HEX2DEC(A1)+1)</f>
+        <v>70000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="str">
+        <f t="shared" ref="A3:A36" si="0">DEC2HEX(HEX2DEC(A2)+1)</f>
+        <v>70000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>70000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>70000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>70000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>70000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>70000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>70000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>70000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>7000000A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>7000000B</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>7000000C</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>7000000D</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>7000000E</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>7000000F</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>70000010</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>70000011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>70000012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>70000013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>70000014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>70000015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>70000016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>70000017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>70000018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>70000019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>7000001A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>7000001B</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>7000001C</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>7000001D</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>7000001E</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>7000001F</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>70000020</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>70000021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>70000022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>70000023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>